--- a/anli UI/BOD 数据 20200116.xlsx
+++ b/anli UI/BOD 数据 20200116.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CN091029\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" tabRatio="794" activeTab="4"/>
   </bookViews>
@@ -34,11 +29,11 @@
     <sheet name="6.4" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.2'!$K$5:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.2'!$A$5:$O$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.3'!$A$5:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.4'!$A$5:$G$5</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1210,7 +1205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
@@ -1222,7 +1217,7 @@
     <numFmt numFmtId="181" formatCode="\$#,##0;\-\$#,##0"/>
     <numFmt numFmtId="182" formatCode="\$#,##0.00;\-\$#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,11 +1484,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1534,7 +1529,7 @@
         <xdr:cNvPr id="2" name="对话气泡: 圆角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECF49C8-4711-479E-B879-EFE546DC1302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AECF49C8-4711-479E-B879-EFE546DC1302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1628,7 @@
         <xdr:cNvPr id="2" name="对话气泡: 圆角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3275F62D-2A1A-4587-9F39-5ACF62840D38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3275F62D-2A1A-4587-9F39-5ACF62840D38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1727,7 @@
         <xdr:cNvPr id="2" name="对话气泡: 圆角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D93E8B5-8186-46BD-AF33-6BFB23AA0063}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D93E8B5-8186-46BD-AF33-6BFB23AA0063}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1826,7 @@
         <xdr:cNvPr id="2" name="对话气泡: 圆角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB2B403-3AA6-48D2-B624-798EB59E9515}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDB2B403-3AA6-48D2-B624-798EB59E9515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2005,7 +2000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2199,7 +2194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2213,7 +2208,7 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -2230,12 +2225,12 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2278,7 +2273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>181</v>
       </c>
@@ -2301,7 +2296,7 @@
         <v>0.91796937909865506</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>182</v>
       </c>
@@ -2312,7 +2307,7 @@
         <v>201.30729502125342</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>183</v>
       </c>
@@ -2326,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>305</v>
       </c>
@@ -2344,7 +2339,7 @@
         <v>272.3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>184</v>
       </c>
@@ -2362,7 +2357,7 @@
         <v>214.8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>185</v>
       </c>
@@ -2387,7 +2382,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>186</v>
       </c>
@@ -2412,7 +2407,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>187</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>234.5801207354651</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>188</v>
       </c>
@@ -2460,7 +2455,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>189</v>
       </c>
@@ -2478,7 +2473,7 @@
         <v>166508547</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>190</v>
       </c>
@@ -2496,7 +2491,7 @@
         <v>171181938</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>191</v>
       </c>
@@ -2528,7 +2523,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="1"/>
@@ -2537,30 +2532,30 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
+    <row r="4" spans="1:10">
+      <c r="B4" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="G4" s="55" t="s">
+      <c r="E4" s="56"/>
+      <c r="G4" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="55"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
         <v>198</v>
       </c>
@@ -2586,7 +2581,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>195</v>
       </c>
@@ -2619,7 +2614,7 @@
         <v>13295.01</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>197</v>
       </c>
@@ -2652,7 +2647,7 @@
         <v>8013.47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
@@ -2685,7 +2680,7 @@
         <v>4963.6400000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>202</v>
       </c>
@@ -2718,7 +2713,7 @@
         <v>97.336666666666602</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>203</v>
       </c>
@@ -2772,17 +2767,17 @@
       <selection activeCell="A5" sqref="A5:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>177</v>
       </c>
@@ -2793,7 +2788,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
         <v>181</v>
       </c>
@@ -2801,7 +2796,7 @@
         <v>0.35070000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
         <v>182</v>
       </c>
@@ -2809,7 +2804,7 @@
         <v>0.35370000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
         <v>183</v>
       </c>
@@ -2817,7 +2812,7 @@
         <v>0.35489999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
         <v>305</v>
       </c>
@@ -2825,7 +2820,7 @@
         <v>0.35370000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="32" t="s">
         <v>184</v>
       </c>
@@ -2833,7 +2828,7 @@
         <v>0.35820000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="32" t="s">
         <v>185</v>
       </c>
@@ -2841,7 +2836,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="32" t="s">
         <v>186</v>
       </c>
@@ -2849,7 +2844,7 @@
         <v>0.36280000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="32" t="s">
         <v>187</v>
       </c>
@@ -2857,7 +2852,7 @@
         <v>0.36230000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
         <v>188</v>
       </c>
@@ -2865,7 +2860,7 @@
         <v>0.3609</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="32" t="s">
         <v>189</v>
       </c>
@@ -2873,7 +2868,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="32" t="s">
         <v>190</v>
       </c>
@@ -2881,7 +2876,7 @@
         <v>0.35310000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="32" t="s">
         <v>191</v>
       </c>
@@ -2903,32 +2898,32 @@
       <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
         <v>216</v>
       </c>
@@ -2936,7 +2931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>210</v>
       </c>
@@ -2944,7 +2939,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>211</v>
       </c>
@@ -2955,7 +2950,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>212</v>
       </c>
@@ -2966,7 +2961,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
@@ -2977,7 +2972,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>214</v>
       </c>
@@ -2988,7 +2983,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>215</v>
       </c>
@@ -3013,33 +3008,33 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="36" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
         <v>216</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>230</v>
       </c>
@@ -3058,7 +3053,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>231</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>232</v>
       </c>
@@ -3080,12 +3075,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>244</v>
       </c>
@@ -3104,7 +3099,7 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -3123,12 +3118,12 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
@@ -3145,7 +3140,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="I4" s="15">
         <f>SUM(B6:B15)</f>
         <v>115.43984273425694</v>
@@ -3165,7 +3160,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>248</v>
       </c>
@@ -3191,7 +3186,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3219,7 +3214,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -3247,7 +3242,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -3275,7 +3270,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -3297,7 +3292,7 @@
         <v>10394350.010442477</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -3319,7 +3314,7 @@
         <v>32725818.066548672</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>9184982.0976106189</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -3363,7 +3358,7 @@
         <v>11287672.890353981</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -3385,7 +3380,7 @@
         <v>20182185.102300886</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -3407,7 +3402,7 @@
         <v>22356585.190973453</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -3429,7 +3424,7 @@
         <v>28301165.178761061</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -3446,7 +3441,7 @@
         <v>63079001.527433634</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -3463,7 +3458,7 @@
         <v>59867391.505309731</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -3480,7 +3475,7 @@
         <v>85712756.356106207</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -3497,7 +3492,7 @@
         <v>64508430.71150443</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -3514,7 +3509,7 @@
         <v>177563661.03380534</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -3531,7 +3526,7 @@
         <v>72150436.549734518</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -3548,7 +3543,7 @@
         <v>64489491.725752212</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>93898400.881504416</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -3582,7 +3577,7 @@
         <v>87992538.356283188</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -3599,7 +3594,7 @@
         <v>77334047.309115052</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -3616,7 +3611,7 @@
         <v>80872189.080973446</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -3633,7 +3628,7 @@
         <v>102592671.9260177</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -3650,7 +3645,7 @@
         <v>73913916.209734499</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -3667,7 +3662,7 @@
         <v>66516116.713274337</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -3684,7 +3679,7 @@
         <v>118700984.25292034</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -3701,7 +3696,7 @@
         <v>85785874.88690266</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -3718,7 +3713,7 @@
         <v>140109520.01566371</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -3735,7 +3730,7 @@
         <v>260482351.24858406</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -3746,12 +3741,12 @@
         <v>94469224.95637168</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="F35" s="21">
         <v>108091744.96690266</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="F36" s="21">
         <v>161533312.51106194</v>
       </c>
@@ -3770,7 +3765,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="2" style="1" customWidth="1"/>
@@ -3785,12 +3780,12 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>264</v>
       </c>
@@ -3798,7 +3793,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>267</v>
       </c>
@@ -3843,7 +3838,7 @@
         <v>20190210</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>262</v>
       </c>
@@ -3877,7 +3872,7 @@
         <v>113783</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>263</v>
       </c>
@@ -3911,7 +3906,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>261</v>
       </c>
@@ -3945,7 +3940,7 @@
         <v>6122</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>266</v>
       </c>
@@ -4012,7 +4007,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -4024,7 +4019,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>271</v>
       </c>
@@ -4032,7 +4027,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>272</v>
       </c>
@@ -4047,7 +4042,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="I4" s="1" t="s">
         <v>276</v>
       </c>
@@ -4055,7 +4050,7 @@
         <v>113567</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>248</v>
       </c>
@@ -4081,7 +4076,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4106,7 +4101,7 @@
         <v>38050</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4125,7 +4120,7 @@
         <v>5601564.9699999997</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4144,7 +4139,7 @@
         <v>6234899.4000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4163,7 +4158,7 @@
         <v>3360371.39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -4182,7 +4177,7 @@
         <v>1661707.82</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -4200,9 +4195,9 @@
       <c r="F11" s="52">
         <v>1465034.23</v>
       </c>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -4221,7 +4216,7 @@
         <v>18174887.75</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>6658034.79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -4259,7 +4254,7 @@
         <v>5572661.8600000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -4278,7 +4273,7 @@
         <v>5188078.4800000004</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -4292,7 +4287,7 @@
         <v>4823142.71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -4306,7 +4301,7 @@
         <v>4809602.9000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -4320,7 +4315,7 @@
         <v>5561974.7599999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -4334,7 +4329,7 @@
         <v>5299904.82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -4348,7 +4343,7 @@
         <v>5761082.75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -4362,7 +4357,7 @@
         <v>2191080.21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -4376,7 +4371,7 @@
         <v>4485709</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>5634143</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -4404,7 +4399,7 @@
         <v>3685557</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -4418,7 +4413,7 @@
         <v>4547689</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -4432,7 +4427,7 @@
         <v>5969077</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -4446,7 +4441,7 @@
         <v>8905192</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -4460,7 +4455,7 @@
         <v>3315708</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -4474,7 +4469,7 @@
         <v>2324247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -4488,7 +4483,7 @@
         <v>4035290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -4502,7 +4497,7 @@
         <v>2649768</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -4516,7 +4511,7 @@
         <v>3576010</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -4530,7 +4525,7 @@
         <v>7585195</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -4544,7 +4539,7 @@
         <v>6130553</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -4558,7 +4553,7 @@
         <v>7176556</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -4586,7 +4581,7 @@
       <selection activeCell="A3" sqref="A3:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="30.75" style="1" bestFit="1" customWidth="1"/>
@@ -4595,12 +4590,12 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>
@@ -4615,7 +4610,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>282</v>
       </c>
@@ -4636,7 +4631,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4647,7 +4642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -4658,7 +4653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -4669,7 +4664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -4680,7 +4675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -4691,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -4702,7 +4697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -4713,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -4724,7 +4719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -4735,7 +4730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -4746,7 +4741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -4757,7 +4752,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -4768,7 +4763,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -4790,7 +4785,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -4801,7 +4796,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -4812,7 +4807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -4823,7 +4818,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -4834,7 +4829,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -4852,7 +4847,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -4861,7 +4856,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -4870,7 +4865,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -4879,7 +4874,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -4903,7 +4898,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="11.375" style="42" bestFit="1" customWidth="1"/>
@@ -4916,12 +4911,12 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -4936,7 +4931,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>282</v>
       </c>
@@ -4967,7 +4962,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4999,7 +4994,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -5021,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -5043,7 +5038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -5065,7 +5060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -5087,7 +5082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -5109,7 +5104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -5131,7 +5126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -5153,7 +5148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -5175,7 +5170,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5197,7 +5192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -5219,7 +5214,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -5263,7 +5258,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -5285,7 +5280,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -5307,7 +5302,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -5329,7 +5324,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -5351,7 +5346,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5373,7 +5368,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -5391,7 +5386,7 @@
       </c>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -5409,7 +5404,7 @@
       </c>
       <c r="H24" s="44"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -5427,7 +5422,7 @@
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -5445,7 +5440,7 @@
       </c>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -5463,7 +5458,7 @@
       </c>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -5496,7 +5491,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
@@ -5505,12 +5500,12 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>297</v>
       </c>
@@ -5522,7 +5517,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>282</v>
       </c>
@@ -5546,7 +5541,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -5565,7 +5560,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -5584,7 +5579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -5603,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -5622,7 +5617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -5641,7 +5636,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -5660,7 +5655,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -5679,7 +5674,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -5698,7 +5693,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -5717,7 +5712,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5736,7 +5731,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -5755,7 +5750,7 @@
         <v>6382</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -5774,7 +5769,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -5793,7 +5788,7 @@
         <v>9419</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -5812,7 +5807,7 @@
         <v>9076</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -5831,7 +5826,7 @@
         <v>7094</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -5850,7 +5845,7 @@
         <v>7159</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -5869,7 +5864,7 @@
         <v>8851</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5888,7 +5883,7 @@
         <v>7028</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -5905,7 +5900,7 @@
         <v>7933</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -5922,7 +5917,7 @@
         <v>8810</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -5939,7 +5934,7 @@
         <v>11247</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -5956,7 +5951,7 @@
         <v>9672</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -5973,7 +5968,7 @@
         <v>8046</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -6006,7 +6001,7 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -6019,12 +6014,12 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -6053,7 +6048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -6087,7 +6082,7 @@
         <v>443531974.26999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -6121,7 +6116,7 @@
         <v>289155643.25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -6155,7 +6150,7 @@
         <v>141983423.87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -6189,7 +6184,7 @@
         <v>179258256.00000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -6223,7 +6218,7 @@
         <v>286568700.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -6257,7 +6252,7 @@
         <v>225599367.39000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -6291,7 +6286,7 @@
         <v>71964042.109999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -6325,7 +6320,7 @@
         <v>159954886.77000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -6359,7 +6354,7 @@
         <v>130692063.34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -6393,7 +6388,7 @@
         <v>442866903.06</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -6427,7 +6422,7 @@
         <v>163382381.75999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
@@ -6461,7 +6456,7 @@
         <v>91247556.670000017</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -6495,7 +6490,7 @@
         <v>278845810.71000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -6529,7 +6524,7 @@
         <v>150187553.94</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -6563,7 +6558,7 @@
         <v>82030535.210000008</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -6597,7 +6592,7 @@
         <v>126931023.56999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -6631,7 +6626,7 @@
         <v>133104159.93000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -6665,7 +6660,7 @@
         <v>227058886.97</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -6699,7 +6694,7 @@
         <v>149939361.64000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -6733,7 +6728,7 @@
         <v>221724061.12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -6767,7 +6762,7 @@
         <v>140706447.81999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -6801,7 +6796,7 @@
         <v>234340271.22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
@@ -6835,7 +6830,7 @@
         <v>125048870.23999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -6869,7 +6864,7 @@
         <v>210375702.95999998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -6903,7 +6898,7 @@
         <v>96882505.099999994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -6937,7 +6932,7 @@
         <v>350062313.27999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -6971,7 +6966,7 @@
         <v>247616565.53</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -7005,7 +7000,7 @@
         <v>139262181.65000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -7039,7 +7034,7 @@
         <v>143302768.00999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
@@ -7073,7 +7068,7 @@
         <v>372625743.19999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -7107,7 +7102,7 @@
         <v>115478951.56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
@@ -7141,7 +7136,7 @@
         <v>272280324.36000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
@@ -7175,7 +7170,7 @@
         <v>123031831.07000001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>122</v>
       </c>
@@ -7209,7 +7204,7 @@
         <v>143563197.31</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -7243,7 +7238,7 @@
         <v>253283212.77000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -7277,7 +7272,7 @@
         <v>147555739.25999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>128</v>
       </c>
@@ -7311,7 +7306,7 @@
         <v>163679823.84999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>130</v>
       </c>
@@ -7345,7 +7340,7 @@
         <v>114188327.58000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>132</v>
       </c>
@@ -7379,7 +7374,7 @@
         <v>151606443.25</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>134</v>
       </c>
@@ -7413,7 +7408,7 @@
         <v>252481593.72000003</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>136</v>
       </c>
@@ -7461,17 +7456,17 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>303</v>
       </c>
@@ -7479,7 +7474,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>282</v>
       </c>
@@ -7497,7 +7492,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -7508,7 +7503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -7519,7 +7514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -7530,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -7541,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -7552,7 +7547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -7563,7 +7558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -7574,7 +7569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -7585,7 +7580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -7596,7 +7591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -7607,7 +7602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -7618,7 +7613,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -7629,7 +7624,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -7640,7 +7635,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -7651,7 +7646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -7662,7 +7657,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -7673,7 +7668,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -7684,7 +7679,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -7695,7 +7690,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -7704,7 +7699,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -7713,7 +7708,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -7722,7 +7717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -7731,7 +7726,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -7740,7 +7735,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -7752,7 +7747,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7765,7 +7761,7 @@
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
@@ -7777,12 +7773,12 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -7809,7 +7805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -7841,7 +7837,7 @@
         <v>70858231.443448201</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -7873,7 +7869,7 @@
         <v>87467754.345172405</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -7905,7 +7901,7 @@
         <v>364243234.19344801</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -7937,7 +7933,7 @@
         <v>99756847.781034395</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -7969,7 +7965,7 @@
         <v>258945045.328275</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -8001,7 +7997,7 @@
         <v>213078874.446551</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -8033,7 +8029,7 @@
         <v>268306896.936551</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -8065,7 +8061,7 @@
         <v>88501822.030000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -8097,7 +8093,7 @@
         <v>8030058.6655172398</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -8129,7 +8125,7 @@
         <v>6184462.1013793098</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -8161,7 +8157,7 @@
         <v>21062137.507241301</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -8193,7 +8189,7 @@
         <v>79676881.234482706</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -8225,7 +8221,7 @@
         <v>76347579.840344802</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -8257,7 +8253,7 @@
         <v>72570172.135517195</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -8289,7 +8285,7 @@
         <v>539675378.633793</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -8321,7 +8317,7 @@
         <v>13269357.9913793</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -8353,7 +8349,7 @@
         <v>257834819.02448201</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
@@ -8385,7 +8381,7 @@
         <v>90092596.162413701</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -8417,7 +8413,7 @@
         <v>288199293.78034401</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
@@ -8449,7 +8445,7 @@
         <v>43073291.830344804</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
@@ -8481,7 +8477,7 @@
         <v>44053740.391724102</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -8513,7 +8509,7 @@
         <v>169732029.027931</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -8545,7 +8541,7 @@
         <v>181282473.82586199</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>124708060.64861999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
@@ -8609,7 +8605,7 @@
         <v>93835065.031379297</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -8641,7 +8637,7 @@
         <v>320505815.46896499</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
@@ -8673,7 +8669,7 @@
         <v>68210243.235517204</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
@@ -8705,7 +8701,7 @@
         <v>40682209.442068897</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -8737,7 +8733,7 @@
         <v>127414458.30655099</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -8769,7 +8765,7 @@
         <v>41440520.847930998</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
@@ -8801,7 +8797,7 @@
         <v>44935253.113793097</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
         <v>42</v>
       </c>
@@ -8833,7 +8829,7 @@
         <v>54447061.485517196</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
@@ -8865,7 +8861,7 @@
         <v>154509934.261724</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
         <v>44</v>
       </c>
@@ -8914,7 +8910,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -8924,12 +8920,12 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>141</v>
       </c>
@@ -8946,7 +8942,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>145</v>
       </c>
@@ -8963,7 +8959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
@@ -8980,7 +8976,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
@@ -8997,7 +8993,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>149</v>
       </c>
@@ -9014,7 +9010,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -9031,7 +9027,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>142</v>
       </c>
@@ -9048,7 +9044,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
@@ -9056,7 +9052,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="25" t="s">
         <v>318</v>
       </c>
@@ -9073,7 +9069,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>145</v>
       </c>
@@ -9091,7 +9087,7 @@
         <v>6.0053419713735276E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
         <v>147</v>
       </c>
@@ -9109,7 +9105,7 @@
         <v>0.1829908955757252</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>148</v>
       </c>
@@ -9127,7 +9123,7 @@
         <v>0.30005815917064488</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
         <v>149</v>
       </c>
@@ -9145,7 +9141,7 @@
         <v>0.3826398357210517</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
         <v>150</v>
       </c>
@@ -9163,7 +9159,7 @@
         <v>7.4257689818842898E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="25" t="s">
         <v>323</v>
       </c>
@@ -9193,49 +9189,48 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -9245,812 +9240,812 @@
       <c r="C5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>162</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="12">
-        <v>201912</v>
+        <v>201909</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C6" s="51">
-        <f>E6/7.25/1000000</f>
-        <v>42.776163950344824</v>
-      </c>
-      <c r="E6" s="14">
-        <v>310127188.63999999</v>
-      </c>
-      <c r="G6" s="12">
-        <v>201912</v>
-      </c>
-      <c r="H6" s="12" t="s">
+        <f>D6/7.25/1000000</f>
+        <v>42.924926322758616</v>
+      </c>
+      <c r="D6" s="14">
+        <v>311205715.83999997</v>
+      </c>
+      <c r="F6" s="12">
+        <v>201909</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="52">
-        <v>414241</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
-        <v>201912</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="H6" s="52">
+        <v>354925</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>201909</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M6" s="52">
-        <f>O6/7.25</f>
-        <v>103.26395492079448</v>
-      </c>
-      <c r="O6" s="14">
-        <f>E6/I6</f>
-        <v>748.66367317575998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L6" s="52">
+        <f>N6/7.25</f>
+        <v>120.94083629712929</v>
+      </c>
+      <c r="N6" s="14">
+        <f>D6/H6</f>
+        <v>876.82106315418741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="12">
-        <v>201912</v>
+        <v>201909</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C7" s="51">
-        <f t="shared" ref="C7:C30" si="0">E7/7.25/1000000</f>
-        <v>11.817014169655172</v>
-      </c>
-      <c r="E7" s="14">
-        <v>85673352.730000004</v>
-      </c>
-      <c r="G7" s="12">
-        <v>201912</v>
-      </c>
-      <c r="H7" s="12" t="s">
+        <f>D7/7.25/1000000</f>
+        <v>14.423861015172415</v>
+      </c>
+      <c r="D7" s="14">
+        <v>104572992.36</v>
+      </c>
+      <c r="F7" s="12">
+        <v>201909</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="52">
-        <v>11787</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
-        <v>201912</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="H7" s="52">
+        <v>11829</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
+        <v>201909</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="52">
-        <f t="shared" ref="M7:M30" si="1">O7/7.25</f>
-        <v>1002.5463790324233</v>
-      </c>
-      <c r="O7" s="14">
-        <f t="shared" ref="O7:O30" si="2">E7/I7</f>
-        <v>7268.4612479850684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L7" s="52">
+        <f>N7/7.25</f>
+        <v>1219.3643600619166</v>
+      </c>
+      <c r="N7" s="14">
+        <f>D7/H7</f>
+        <v>8840.3916104488962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="12">
-        <v>201912</v>
+        <v>201909</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="51">
-        <f t="shared" si="0"/>
-        <v>56.267092444137937</v>
-      </c>
-      <c r="E8" s="14">
-        <v>407936420.22000003</v>
-      </c>
-      <c r="G8" s="12">
-        <v>201912</v>
-      </c>
-      <c r="H8" s="12" t="s">
+        <f>D8/7.25/1000000</f>
+        <v>88.415094613793102</v>
+      </c>
+      <c r="D8" s="14">
+        <v>641009435.95000005</v>
+      </c>
+      <c r="F8" s="12">
+        <v>201909</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="52">
-        <v>80835</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12">
-        <v>201912</v>
-      </c>
-      <c r="L8" s="12" t="s">
+      <c r="H8" s="52">
+        <v>92819</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <v>201909</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M8" s="52">
-        <f t="shared" si="1"/>
-        <v>696.07338954831368</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" si="2"/>
-        <v>5046.5320742252743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L8" s="52">
+        <f>N8/7.25</f>
+        <v>952.55383718627763</v>
+      </c>
+      <c r="N8" s="14">
+        <f>D8/H8</f>
+        <v>6906.0153196005131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="12">
-        <v>201912</v>
+        <v>201909</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="51">
-        <f t="shared" si="0"/>
-        <v>28.073812038620687</v>
-      </c>
-      <c r="E9" s="14">
-        <v>203535137.28</v>
-      </c>
-      <c r="G9" s="12">
-        <v>201912</v>
-      </c>
-      <c r="H9" s="12" t="s">
+        <f>D9/7.25/1000000</f>
+        <v>23.546121017931032</v>
+      </c>
+      <c r="D9" s="14">
+        <v>170709377.38</v>
+      </c>
+      <c r="F9" s="12">
+        <v>201909</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="52">
-        <v>675400</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
-        <v>201912</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="H9" s="52">
+        <v>329071</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
+        <v>201909</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="52">
-        <f t="shared" si="1"/>
-        <v>41.566200827096075</v>
-      </c>
-      <c r="O9" s="14">
-        <f t="shared" si="2"/>
-        <v>301.35495599644656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L9" s="52">
+        <f>N9/7.25</f>
+        <v>71.553315296489316</v>
+      </c>
+      <c r="N9" s="14">
+        <f>D9/H9</f>
+        <v>518.76153589954754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="12">
-        <v>201912</v>
+        <v>201909</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="51">
-        <f t="shared" si="0"/>
-        <v>55.383969653793102</v>
-      </c>
-      <c r="E10" s="14">
-        <v>401533779.99000001</v>
-      </c>
-      <c r="G10" s="12">
-        <v>201912</v>
-      </c>
-      <c r="H10" s="12" t="s">
+        <f>D10/7.25/1000000</f>
+        <v>67.144416689655174</v>
+      </c>
+      <c r="D10" s="14">
+        <v>486797021</v>
+      </c>
+      <c r="F10" s="12">
+        <v>201909</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="52">
-        <v>178235</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
-        <v>201912</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="H10" s="52">
+        <v>179711</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
+        <v>201909</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="52">
-        <f t="shared" si="1"/>
-        <v>310.73565603721551</v>
-      </c>
-      <c r="O10" s="14">
-        <f t="shared" si="2"/>
-        <v>2252.8335062698125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L10" s="52">
+        <f>N10/7.25</f>
+        <v>373.62441191499227</v>
+      </c>
+      <c r="N10" s="14">
+        <f>D10/H10</f>
+        <v>2708.7769863836938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="12">
-        <v>201911</v>
+        <v>201910</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="51">
-        <f t="shared" si="0"/>
-        <v>35.484351437241372</v>
-      </c>
-      <c r="E11" s="14">
-        <v>257261547.91999999</v>
-      </c>
-      <c r="G11" s="12">
-        <v>201911</v>
-      </c>
-      <c r="H11" s="12" t="s">
+        <f>D11/7.25/1000000</f>
+        <v>46.635102987586208</v>
+      </c>
+      <c r="D11" s="14">
+        <v>338104496.66000003</v>
+      </c>
+      <c r="F11" s="12">
+        <v>201910</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="52">
-        <v>356943</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12">
-        <v>201911</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="H11" s="52">
+        <v>490045</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
+        <v>201910</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M11" s="52">
-        <f t="shared" si="1"/>
-        <v>99.41181487588041</v>
-      </c>
-      <c r="O11" s="14">
-        <f t="shared" si="2"/>
-        <v>720.73565785013295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L11" s="52">
+        <f>N11/7.25</f>
+        <v>95.164939929162031</v>
+      </c>
+      <c r="N11" s="14">
+        <f>D11/H11</f>
+        <v>689.94581448642475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="12">
-        <v>201911</v>
+        <v>201910</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="51">
-        <f t="shared" si="0"/>
-        <v>11.932999194482759</v>
-      </c>
-      <c r="E12" s="14">
-        <v>86514244.159999996</v>
-      </c>
-      <c r="G12" s="12">
-        <v>201911</v>
-      </c>
-      <c r="H12" s="12" t="s">
+        <f>D12/7.25/1000000</f>
+        <v>8.8662024579310348</v>
+      </c>
+      <c r="D12" s="14">
+        <v>64279967.82</v>
+      </c>
+      <c r="F12" s="12">
+        <v>201910</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="52">
-        <v>11787</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12">
-        <v>201911</v>
-      </c>
-      <c r="L12" s="12" t="s">
+      <c r="H12" s="52">
+        <v>11792</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>201910</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="52">
-        <f t="shared" si="1"/>
-        <v>1012.3864591908678</v>
-      </c>
-      <c r="O12" s="14">
-        <f t="shared" si="2"/>
-        <v>7339.8018291337912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L12" s="52">
+        <f>N12/7.25</f>
+        <v>751.88284073363593</v>
+      </c>
+      <c r="N12" s="14">
+        <f>D12/H12</f>
+        <v>5451.1505953188607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
-        <v>201911</v>
+        <v>201910</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="51">
-        <f t="shared" si="0"/>
-        <v>52.939304928275867</v>
-      </c>
-      <c r="E13" s="14">
-        <v>383809960.73000002</v>
-      </c>
-      <c r="G13" s="12">
-        <v>201911</v>
-      </c>
-      <c r="H13" s="12" t="s">
+        <f>D13/7.25/1000000</f>
+        <v>48.174266732413791</v>
+      </c>
+      <c r="D13" s="14">
+        <v>349263433.81</v>
+      </c>
+      <c r="F13" s="12">
+        <v>201910</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="52">
-        <v>73543</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12">
-        <v>201911</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="H13" s="52">
+        <v>82240</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12">
+        <v>201910</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M13" s="52">
-        <f t="shared" si="1"/>
-        <v>719.84152031159817</v>
-      </c>
-      <c r="O13" s="14">
-        <f t="shared" si="2"/>
-        <v>5218.8510222590867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L13" s="52">
+        <f>N13/7.25</f>
+        <v>585.77658964510931</v>
+      </c>
+      <c r="N13" s="14">
+        <f>D13/H13</f>
+        <v>4246.8802749270426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="12">
-        <v>201911</v>
+        <v>201910</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="51">
-        <f t="shared" si="0"/>
-        <v>19.938419089655174</v>
-      </c>
-      <c r="E14" s="14">
-        <v>144553538.40000001</v>
-      </c>
-      <c r="G14" s="12">
-        <v>201911</v>
-      </c>
-      <c r="H14" s="12" t="s">
+        <f>D14/7.25/1000000</f>
+        <v>28.179233154482759</v>
+      </c>
+      <c r="D14" s="14">
+        <v>204299440.37</v>
+      </c>
+      <c r="F14" s="12">
+        <v>201910</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="52">
-        <v>396833</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12">
-        <v>201911</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="H14" s="52">
+        <v>764391</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12">
+        <v>201910</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M14" s="52">
-        <f t="shared" si="1"/>
-        <v>50.243853433699243</v>
-      </c>
-      <c r="O14" s="14">
-        <f t="shared" si="2"/>
-        <v>364.26793739431952</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L14" s="52">
+        <f>N14/7.25</f>
+        <v>36.864946283358591</v>
+      </c>
+      <c r="N14" s="14">
+        <f>D14/H14</f>
+        <v>267.27086055434978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="12">
-        <v>201911</v>
+        <v>201910</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C15" s="51">
-        <f t="shared" si="0"/>
-        <v>52.872795674482752</v>
-      </c>
-      <c r="E15" s="14">
-        <v>383327768.63999999</v>
-      </c>
-      <c r="G15" s="12">
+        <f>D15/7.25/1000000</f>
+        <v>52.077755997241383</v>
+      </c>
+      <c r="D15" s="14">
+        <v>377563730.98000002</v>
+      </c>
+      <c r="F15" s="12">
+        <v>201910</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="52">
+        <v>189961</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
+        <v>201910</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="52">
+        <f>N15/7.25</f>
+        <v>274.14972545544288</v>
+      </c>
+      <c r="N15" s="14">
+        <f>D15/H15</f>
+        <v>1987.5855095519607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="12">
         <v>201911</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="52">
-        <v>205449</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12">
-        <v>201911</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" s="52">
-        <f t="shared" si="1"/>
-        <v>257.35241190992781</v>
-      </c>
-      <c r="O15" s="14">
-        <f t="shared" si="2"/>
-        <v>1865.8049863469766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>201910</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="51">
-        <f t="shared" si="0"/>
-        <v>46.635102987586208</v>
-      </c>
-      <c r="E16" s="14">
-        <v>338104496.66000003</v>
-      </c>
-      <c r="G16" s="12">
-        <v>201910</v>
-      </c>
-      <c r="H16" s="12" t="s">
+        <f>D16/7.25/1000000</f>
+        <v>35.484351437241372</v>
+      </c>
+      <c r="D16" s="14">
+        <v>257261547.91999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>201911</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="52">
-        <v>490045</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12">
-        <v>201910</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="H16" s="52">
+        <v>356943</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
+        <v>201911</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M16" s="52">
-        <f t="shared" si="1"/>
-        <v>95.164939929162031</v>
-      </c>
-      <c r="O16" s="14">
-        <f t="shared" si="2"/>
-        <v>689.94581448642475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L16" s="52">
+        <f>N16/7.25</f>
+        <v>99.41181487588041</v>
+      </c>
+      <c r="N16" s="14">
+        <f>D16/H16</f>
+        <v>720.73565785013295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="12">
-        <v>201910</v>
+        <v>201911</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C17" s="51">
-        <f t="shared" si="0"/>
-        <v>8.8662024579310348</v>
-      </c>
-      <c r="E17" s="14">
-        <v>64279967.82</v>
-      </c>
-      <c r="G17" s="12">
-        <v>201910</v>
-      </c>
-      <c r="H17" s="12" t="s">
+        <f>D17/7.25/1000000</f>
+        <v>11.932999194482759</v>
+      </c>
+      <c r="D17" s="14">
+        <v>86514244.159999996</v>
+      </c>
+      <c r="F17" s="12">
+        <v>201911</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="52">
-        <v>11792</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12">
-        <v>201910</v>
-      </c>
-      <c r="L17" s="12" t="s">
+      <c r="H17" s="52">
+        <v>11787</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
+        <v>201911</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="52">
-        <f t="shared" si="1"/>
-        <v>751.88284073363593</v>
-      </c>
-      <c r="O17" s="14">
-        <f t="shared" si="2"/>
-        <v>5451.1505953188607</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L17" s="52">
+        <f>N17/7.25</f>
+        <v>1012.3864591908678</v>
+      </c>
+      <c r="N17" s="14">
+        <f>D17/H17</f>
+        <v>7339.8018291337912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="12">
-        <v>201910</v>
+        <v>201911</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C18" s="51">
-        <f t="shared" si="0"/>
-        <v>48.174266732413791</v>
-      </c>
-      <c r="E18" s="14">
-        <v>349263433.81</v>
-      </c>
-      <c r="G18" s="12">
-        <v>201910</v>
-      </c>
-      <c r="H18" s="12" t="s">
+        <f>D18/7.25/1000000</f>
+        <v>52.939304928275867</v>
+      </c>
+      <c r="D18" s="14">
+        <v>383809960.73000002</v>
+      </c>
+      <c r="F18" s="12">
+        <v>201911</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="52">
-        <v>82240</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12">
-        <v>201910</v>
-      </c>
-      <c r="L18" s="12" t="s">
+      <c r="H18" s="52">
+        <v>73543</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12">
+        <v>201911</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M18" s="52">
-        <f t="shared" si="1"/>
-        <v>585.77658964510931</v>
-      </c>
-      <c r="O18" s="14">
-        <f t="shared" si="2"/>
-        <v>4246.8802749270426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L18" s="52">
+        <f>N18/7.25</f>
+        <v>719.84152031159817</v>
+      </c>
+      <c r="N18" s="14">
+        <f>D18/H18</f>
+        <v>5218.8510222590867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="12">
-        <v>201910</v>
+        <v>201911</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C19" s="51">
-        <f t="shared" si="0"/>
-        <v>28.179233154482759</v>
-      </c>
-      <c r="E19" s="14">
-        <v>204299440.37</v>
-      </c>
-      <c r="G19" s="12">
-        <v>201910</v>
-      </c>
-      <c r="H19" s="12" t="s">
+        <f>D19/7.25/1000000</f>
+        <v>19.938419089655174</v>
+      </c>
+      <c r="D19" s="14">
+        <v>144553538.40000001</v>
+      </c>
+      <c r="F19" s="12">
+        <v>201911</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="52">
-        <v>764391</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
-        <v>201910</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="H19" s="52">
+        <v>396833</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12">
+        <v>201911</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="52">
-        <f t="shared" si="1"/>
-        <v>36.864946283358591</v>
-      </c>
-      <c r="O19" s="14">
-        <f t="shared" si="2"/>
-        <v>267.27086055434978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L19" s="52">
+        <f>N19/7.25</f>
+        <v>50.243853433699243</v>
+      </c>
+      <c r="N19" s="14">
+        <f>D19/H19</f>
+        <v>364.26793739431952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="12">
-        <v>201910</v>
+        <v>201911</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C20" s="51">
-        <f t="shared" si="0"/>
-        <v>52.077755997241383</v>
-      </c>
-      <c r="E20" s="14">
-        <v>377563730.98000002</v>
-      </c>
-      <c r="G20" s="12">
-        <v>201910</v>
-      </c>
-      <c r="H20" s="12" t="s">
+        <f>D20/7.25/1000000</f>
+        <v>52.872795674482752</v>
+      </c>
+      <c r="D20" s="14">
+        <v>383327768.63999999</v>
+      </c>
+      <c r="F20" s="12">
+        <v>201911</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="52">
-        <v>189961</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12">
-        <v>201910</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="H20" s="52">
+        <v>205449</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
+        <v>201911</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="M20" s="52">
-        <f t="shared" si="1"/>
-        <v>274.14972545544288</v>
-      </c>
-      <c r="O20" s="14">
-        <f t="shared" si="2"/>
-        <v>1987.5855095519607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L20" s="52">
+        <f>N20/7.25</f>
+        <v>257.35241190992781</v>
+      </c>
+      <c r="N20" s="14">
+        <f>D20/H20</f>
+        <v>1865.8049863469766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="12">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C21" s="51">
-        <f t="shared" si="0"/>
-        <v>42.924926322758616</v>
-      </c>
-      <c r="E21" s="14">
-        <v>311205715.83999997</v>
-      </c>
-      <c r="G21" s="12">
-        <v>201909</v>
-      </c>
-      <c r="H21" s="12" t="s">
+        <f>D21/7.25/1000000</f>
+        <v>42.776163950344824</v>
+      </c>
+      <c r="D21" s="14">
+        <v>310127188.63999999</v>
+      </c>
+      <c r="F21" s="12">
+        <v>201912</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="52">
-        <v>354925</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
-        <v>201909</v>
-      </c>
-      <c r="L21" s="12" t="s">
+      <c r="H21" s="52">
+        <v>414241</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
+        <v>201912</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="52">
-        <f t="shared" si="1"/>
-        <v>120.94083629712929</v>
-      </c>
-      <c r="O21" s="14">
-        <f t="shared" si="2"/>
-        <v>876.82106315418741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L21" s="52">
+        <f>N21/7.25</f>
+        <v>103.26395492079448</v>
+      </c>
+      <c r="N21" s="14">
+        <f>D21/H21</f>
+        <v>748.66367317575998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="12">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="51">
-        <f t="shared" si="0"/>
-        <v>14.423861015172415</v>
-      </c>
-      <c r="E22" s="14">
-        <v>104572992.36</v>
-      </c>
-      <c r="G22" s="12">
-        <v>201909</v>
-      </c>
-      <c r="H22" s="12" t="s">
+        <f>D22/7.25/1000000</f>
+        <v>11.817014169655172</v>
+      </c>
+      <c r="D22" s="14">
+        <v>85673352.730000004</v>
+      </c>
+      <c r="F22" s="12">
+        <v>201912</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="52">
-        <v>11829</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12">
-        <v>201909</v>
-      </c>
-      <c r="L22" s="12" t="s">
+      <c r="H22" s="52">
+        <v>11787</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12">
+        <v>201912</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="52">
-        <f t="shared" si="1"/>
-        <v>1219.3643600619166</v>
-      </c>
-      <c r="O22" s="14">
-        <f t="shared" si="2"/>
-        <v>8840.3916104488962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L22" s="52">
+        <f>N22/7.25</f>
+        <v>1002.5463790324233</v>
+      </c>
+      <c r="N22" s="14">
+        <f>D22/H22</f>
+        <v>7268.4612479850684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="12">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C23" s="51">
-        <f t="shared" si="0"/>
-        <v>88.415094613793102</v>
-      </c>
-      <c r="E23" s="14">
-        <v>641009435.95000005</v>
-      </c>
-      <c r="G23" s="12">
-        <v>201909</v>
-      </c>
-      <c r="H23" s="12" t="s">
+        <f>D23/7.25/1000000</f>
+        <v>56.267092444137937</v>
+      </c>
+      <c r="D23" s="14">
+        <v>407936420.22000003</v>
+      </c>
+      <c r="F23" s="12">
+        <v>201912</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I23" s="52">
-        <v>92819</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12">
-        <v>201909</v>
-      </c>
-      <c r="L23" s="12" t="s">
+      <c r="H23" s="52">
+        <v>80835</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12">
+        <v>201912</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="52">
-        <f t="shared" si="1"/>
-        <v>952.55383718627763</v>
-      </c>
-      <c r="O23" s="14">
-        <f t="shared" si="2"/>
-        <v>6906.0153196005131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L23" s="52">
+        <f>N23/7.25</f>
+        <v>696.07338954831368</v>
+      </c>
+      <c r="N23" s="14">
+        <f>D23/H23</f>
+        <v>5046.5320742252743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="12">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="51">
-        <f t="shared" si="0"/>
-        <v>23.546121017931032</v>
-      </c>
-      <c r="E24" s="14">
-        <v>170709377.38</v>
-      </c>
-      <c r="G24" s="12">
-        <v>201909</v>
-      </c>
-      <c r="H24" s="12" t="s">
+        <f>D24/7.25/1000000</f>
+        <v>28.073812038620687</v>
+      </c>
+      <c r="D24" s="14">
+        <v>203535137.28</v>
+      </c>
+      <c r="F24" s="12">
+        <v>201912</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="52">
-        <v>329071</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12">
-        <v>201909</v>
-      </c>
-      <c r="L24" s="12" t="s">
+      <c r="H24" s="52">
+        <v>675400</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
+        <v>201912</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M24" s="52">
-        <f t="shared" si="1"/>
-        <v>71.553315296489316</v>
-      </c>
-      <c r="O24" s="14">
-        <f t="shared" si="2"/>
-        <v>518.76153589954754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L24" s="52">
+        <f>N24/7.25</f>
+        <v>41.566200827096075</v>
+      </c>
+      <c r="N24" s="14">
+        <f>D24/H24</f>
+        <v>301.35495599644656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="12">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C25" s="51">
-        <f t="shared" si="0"/>
-        <v>67.144416689655174</v>
-      </c>
-      <c r="E25" s="14">
-        <v>486797021</v>
-      </c>
-      <c r="G25" s="12">
-        <v>201909</v>
-      </c>
-      <c r="H25" s="12" t="s">
+        <f>D25/7.25/1000000</f>
+        <v>55.383969653793102</v>
+      </c>
+      <c r="D25" s="14">
+        <v>401533779.99000001</v>
+      </c>
+      <c r="F25" s="12">
+        <v>201912</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="52">
-        <v>179711</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12">
-        <v>201909</v>
-      </c>
-      <c r="L25" s="12" t="s">
+      <c r="H25" s="52">
+        <v>178235</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12">
+        <v>201912</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="52">
-        <f t="shared" si="1"/>
-        <v>373.62441191499227</v>
-      </c>
-      <c r="O25" s="14">
-        <f t="shared" si="2"/>
-        <v>2708.7769863836938</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L25" s="52">
+        <f>N25/7.25</f>
+        <v>310.73565603721551</v>
+      </c>
+      <c r="N25" s="14">
+        <f>D25/H25</f>
+        <v>2252.8335062698125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="6">
         <v>202001</v>
       </c>
@@ -10058,37 +10053,37 @@
         <v>147</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="0"/>
+        <f>D26/7.25/1000000</f>
         <v>40.909771728275857</v>
       </c>
-      <c r="E26" s="8">
+      <c r="D26" s="8">
         <v>296595845.02999997</v>
       </c>
-      <c r="G26" s="6">
+      <c r="F26" s="6">
         <v>202001</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I26" s="21">
+      <c r="H26" s="21">
         <v>362548</v>
       </c>
-      <c r="K26" s="6">
+      <c r="J26" s="6">
         <v>202001</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="21">
-        <f t="shared" si="1"/>
+      <c r="L26" s="21">
+        <f>N26/7.25</f>
         <v>112.83960117908762</v>
       </c>
-      <c r="O26" s="14">
-        <f t="shared" si="2"/>
+      <c r="N26" s="14">
+        <f>D26/H26</f>
         <v>818.08710854838523</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="6">
         <v>202001</v>
       </c>
@@ -10096,37 +10091,37 @@
         <v>150</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="0"/>
+        <f>D27/7.25/1000000</f>
         <v>20.464808168275862</v>
       </c>
-      <c r="E27" s="8">
+      <c r="D27" s="8">
         <v>148369859.22</v>
       </c>
-      <c r="G27" s="6">
+      <c r="F27" s="6">
         <v>202001</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="21">
+      <c r="H27" s="21">
         <v>12941</v>
       </c>
-      <c r="K27" s="6">
+      <c r="J27" s="6">
         <v>202001</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M27" s="21">
-        <f t="shared" si="1"/>
+      <c r="L27" s="21">
+        <f>N27/7.25</f>
         <v>1581.3931047272902</v>
       </c>
-      <c r="O27" s="14">
-        <f t="shared" si="2"/>
+      <c r="N27" s="14">
+        <f>D27/H27</f>
         <v>11465.100009272854</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="6">
         <v>202001</v>
       </c>
@@ -10134,37 +10129,37 @@
         <v>149</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="0"/>
+        <f>D28/7.25/1000000</f>
         <v>109.66053526206896</v>
       </c>
-      <c r="E28" s="8">
+      <c r="D28" s="8">
         <v>795038880.64999998</v>
       </c>
-      <c r="G28" s="6">
+      <c r="F28" s="6">
         <v>202001</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="21">
+      <c r="H28" s="21">
         <v>96411</v>
       </c>
-      <c r="K28" s="6">
+      <c r="J28" s="6">
         <v>202001</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M28" s="21">
-        <f t="shared" si="1"/>
+      <c r="L28" s="21">
+        <f>N28/7.25</f>
         <v>1137.4276302711201</v>
       </c>
-      <c r="O28" s="14">
-        <f t="shared" si="2"/>
+      <c r="N28" s="14">
+        <f>D28/H28</f>
         <v>8246.3503194656205</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="6">
         <v>202001</v>
       </c>
@@ -10172,37 +10167,37 @@
         <v>145</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="0"/>
+        <f>D29/7.25/1000000</f>
         <v>11.498626990344828</v>
       </c>
-      <c r="E29" s="8">
+      <c r="D29" s="8">
         <v>83365045.680000007</v>
       </c>
-      <c r="G29" s="6">
+      <c r="F29" s="6">
         <v>202001</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="21">
+      <c r="H29" s="21">
         <v>102403</v>
       </c>
-      <c r="K29" s="6">
+      <c r="J29" s="6">
         <v>202001</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M29" s="21">
-        <f t="shared" si="1"/>
+      <c r="L29" s="21">
+        <f>N29/7.25</f>
         <v>112.28798951539339</v>
       </c>
-      <c r="O29" s="14">
-        <f t="shared" si="2"/>
+      <c r="N29" s="14">
+        <f>D29/H29</f>
         <v>814.08792398660205</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="6">
         <v>202001</v>
       </c>
@@ -10210,38 +10205,42 @@
         <v>148</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="0"/>
+        <f>D30/7.25/1000000</f>
         <v>77.089973096551731</v>
       </c>
-      <c r="E30" s="8">
+      <c r="D30" s="8">
         <v>558902304.95000005</v>
       </c>
-      <c r="G30" s="6">
+      <c r="F30" s="6">
         <v>202001</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="21">
+      <c r="H30" s="21">
         <v>175595</v>
       </c>
-      <c r="K30" s="6">
+      <c r="J30" s="6">
         <v>202001</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="K30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="21">
-        <f t="shared" si="1"/>
+      <c r="L30" s="21">
+        <f>N30/7.25</f>
         <v>439.02145901962888</v>
       </c>
-      <c r="O30" s="14">
-        <f t="shared" si="2"/>
+      <c r="N30" s="14">
+        <f>D30/H30</f>
         <v>3182.9055778923093</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K5:O5"/>
+  <autoFilter ref="A5:O5">
+    <sortState ref="A6:O30">
+      <sortCondition ref="A5"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10256,7 +10255,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -10268,12 +10267,12 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>169</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>170</v>
       </c>
@@ -10295,7 +10294,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>201909</v>
       </c>
@@ -10314,7 +10313,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>201910</v>
       </c>
@@ -10333,7 +10332,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>201911</v>
       </c>
@@ -10352,7 +10351,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>201912</v>
       </c>
@@ -10371,7 +10370,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>202001</v>
       </c>
@@ -10386,7 +10385,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>173</v>
       </c>
@@ -10409,7 +10408,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
@@ -10421,12 +10420,12 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>169</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>170</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>201909</v>
       </c>
@@ -10467,7 +10466,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>201910</v>
       </c>
@@ -10486,7 +10485,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>201911</v>
       </c>
@@ -10505,7 +10504,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>201912</v>
       </c>
@@ -10524,7 +10523,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>202001</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>173</v>
       </c>
@@ -10562,19 +10561,19 @@
       <selection activeCell="A7" sqref="A7:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>482538</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>2107393</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>177</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
         <v>181</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>118077</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
         <v>182</v>
       </c>
@@ -10624,7 +10623,7 @@
         <v>75924</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="32" t="s">
         <v>183</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>75792</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="32" t="s">
         <v>305</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>78998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="32" t="s">
         <v>184</v>
       </c>
@@ -10657,7 +10656,7 @@
         <v>48544</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="32" t="s">
         <v>185</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>30197</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
         <v>186</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>49075</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="32" t="s">
         <v>187</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>61534</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="32" t="s">
         <v>188</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>58222</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="32" t="s">
         <v>189</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>55872</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="32" t="s">
         <v>190</v>
       </c>
@@ -10711,7 +10710,7 @@
         <v>50773</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="32" t="s">
         <v>191</v>
       </c>
@@ -10734,19 +10733,19 @@
       <selection activeCell="A5" sqref="A5:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>177</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="32" t="s">
         <v>181</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>9244.5249000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
         <v>182</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>12721</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="32" t="s">
         <v>183</v>
       </c>
@@ -10827,7 +10826,7 @@
         <v>12199</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="32" t="s">
         <v>305</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>12865</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="32" t="s">
         <v>184</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>15299</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="32" t="s">
         <v>185</v>
       </c>
@@ -10858,7 +10857,7 @@
         <v>9873</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
         <v>186</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v>11155</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="32" t="s">
         <v>187</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>10121</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="32" t="s">
         <v>188</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>10848</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="32" t="s">
         <v>189</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="32" t="s">
         <v>190</v>
       </c>
@@ -10903,7 +10902,7 @@
         <v>10165</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="32" t="s">
         <v>191</v>
       </c>
